--- a/Excel/12match+index/第12讲Match与Index.xlsx
+++ b/Excel/12match+index/第12讲Match与Index.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xmind\Excel\12match+index\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E5E14B-199F-480D-BD7D-7C3803F09A26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="15" windowWidth="9630" windowHeight="7875"/>
+    <workbookView xWindow="9585" yWindow="15" windowWidth="9630" windowHeight="7875" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXCEL课件" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数据源!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">数据源!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1907,7 +1913,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2078,13 +2084,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2107,7 +2116,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2145,7 +2160,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1051" name="图片 7"/>
+        <xdr:cNvPr id="1051" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2244,7 +2265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2277,9 +2298,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2312,6 +2350,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2487,14 +2542,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor indexed="60"/>
   </sheetPr>
   <dimension ref="A6:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2595,7 +2650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5834,11 +5889,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5858,85 +5913,127 @@
       <c r="A2" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="9" t="str">
+        <f>INDEX(数据源!B:B,MATCH(查询!A2,数据源!A:A,0))</f>
+        <v>浩天旅行社</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9" t="str">
+        <f>INDEX(数据源!B:B,MATCH(查询!A3,数据源!A:A,0))</f>
+        <v>正人资源</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="str">
+        <f>INDEX(数据源!B:B,MATCH(查询!A4,数据源!A:A,0))</f>
+        <v>实翼</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="str">
+        <f>INDEX(数据源!B:B,MATCH(查询!A5,数据源!A:A,0))</f>
+        <v>坦森行贸易</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="9" t="str">
+        <f>INDEX(数据源!B:B,MATCH(查询!A6,数据源!A:A,0))</f>
+        <v>和福建设</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="9" t="str">
+        <f>INDEX(数据源!B:B,MATCH(查询!A7,数据源!A:A,0))</f>
+        <v>春永建设</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="9" t="str">
+        <f>INDEX(数据源!B:B,MATCH(查询!A8,数据源!A:A,0))</f>
+        <v>幸义房屋</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="9" t="str">
+        <f>INDEX(数据源!B:B,MATCH(查询!A9,数据源!A:A,0))</f>
+        <v>兴中保险</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="str">
+        <f>INDEX(数据源!B:B,MATCH(查询!A10,数据源!A:A,0))</f>
+        <v>富泰人寿</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="9" t="str">
+        <f>INDEX(数据源!B:B,MATCH(查询!A11,数据源!A:A,0))</f>
+        <v>保信人寿</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="9" t="str">
+        <f>INDEX(数据源!B:B,MATCH(查询!A12,数据源!A:A,0))</f>
+        <v>一诠精密工业</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="9" t="str">
+        <f>INDEX(数据源!B:B,MATCH(查询!A13,数据源!A:A,0))</f>
+        <v>立日股份有限公司</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="9" t="str">
+        <f>INDEX(数据源!B:B,MATCH(查询!A14,数据源!A:A,0))</f>
+        <v>昇昕股份有限公司</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="9" t="str">
+        <f>INDEX(数据源!B:B,MATCH(查询!A15,数据源!A:A,0))</f>
+        <v>福星制衣厂股份有限公司</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5946,7 +6043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6044,11 +6141,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6089,45 +6186,369 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <f>B$1*$A2</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:J10" si="0">C$1*$A2</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B10" si="1">B$1*$A3</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6137,11 +6558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6170,35 +6591,175 @@
       <c r="A3" s="12" t="s">
         <v>612</v>
       </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP(返回多列结果!$A3,数据源!$A:$J,MATCH(返回多列结果!B$2,数据源!$1:$1,0),0)</f>
+        <v>浩天旅行社</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(返回多列结果!$A3,数据源!$A:$J,MATCH(返回多列结果!C$2,数据源!$1:$1,0),0)</f>
+        <v>白广路 314 号</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(返回多列结果!$A3,数据源!$A:$J,MATCH(返回多列结果!D$2,数据源!$1:$1,0),0)</f>
+        <v>方先生</v>
+      </c>
+      <c r="E3" t="str">
+        <f>VLOOKUP(返回多列结果!$A3,数据源!$A:$J,MATCH(返回多列结果!E$2,数据源!$1:$1,0),0)</f>
+        <v>(030) 30076545</v>
+      </c>
+      <c r="F3" t="str">
+        <f>VLOOKUP(返回多列结果!$A3,数据源!$A:$J,MATCH(返回多列结果!F$2,数据源!$1:$1,0),0)</f>
+        <v>天津</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>613</v>
       </c>
+      <c r="B4" t="str">
+        <f>VLOOKUP(返回多列结果!$A4,数据源!$A:$J,MATCH(返回多列结果!B$2,数据源!$1:$1,0),0)</f>
+        <v>正人资源</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(返回多列结果!$A4,数据源!$A:$J,MATCH(返回多列结果!C$2,数据源!$1:$1,0),0)</f>
+        <v>临江东街 62 号</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(返回多列结果!$A4,数据源!$A:$J,MATCH(返回多列结果!D$2,数据源!$1:$1,0),0)</f>
+        <v>谢小姐</v>
+      </c>
+      <c r="E4" t="str">
+        <f>VLOOKUP(返回多列结果!$A4,数据源!$A:$J,MATCH(返回多列结果!E$2,数据源!$1:$1,0),0)</f>
+        <v>(0571) 76753425</v>
+      </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP(返回多列结果!$A4,数据源!$A:$J,MATCH(返回多列结果!F$2,数据源!$1:$1,0),0)</f>
+        <v>深圳</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>614</v>
       </c>
+      <c r="B5" t="str">
+        <f>VLOOKUP(返回多列结果!$A5,数据源!$A:$J,MATCH(返回多列结果!B$2,数据源!$1:$1,0),0)</f>
+        <v>实翼</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(返回多列结果!$A5,数据源!$A:$J,MATCH(返回多列结果!C$2,数据源!$1:$1,0),0)</f>
+        <v>永惠西街 392 号</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(返回多列结果!$A5,数据源!$A:$J,MATCH(返回多列结果!D$2,数据源!$1:$1,0),0)</f>
+        <v>谢小姐</v>
+      </c>
+      <c r="E5" t="str">
+        <f>VLOOKUP(返回多列结果!$A5,数据源!$A:$J,MATCH(返回多列结果!E$2,数据源!$1:$1,0),0)</f>
+        <v>(0211) 5550091</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(返回多列结果!$A5,数据源!$A:$J,MATCH(返回多列结果!F$2,数据源!$1:$1,0),0)</f>
+        <v>南昌</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>615</v>
       </c>
+      <c r="B6" t="str">
+        <f>VLOOKUP(返回多列结果!$A6,数据源!$A:$J,MATCH(返回多列结果!B$2,数据源!$1:$1,0),0)</f>
+        <v>坦森行贸易</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(返回多列结果!$A6,数据源!$A:$J,MATCH(返回多列结果!C$2,数据源!$1:$1,0),0)</f>
+        <v>黄台北路 780 号</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(返回多列结果!$A6,数据源!$A:$J,MATCH(返回多列结果!D$2,数据源!$1:$1,0),0)</f>
+        <v>王炫皓</v>
+      </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP(返回多列结果!$A6,数据源!$A:$J,MATCH(返回多列结果!E$2,数据源!$1:$1,0),0)</f>
+        <v>(0321) 5553932</v>
+      </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP(返回多列结果!$A6,数据源!$A:$J,MATCH(返回多列结果!F$2,数据源!$1:$1,0),0)</f>
+        <v>石家庄</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>616</v>
       </c>
+      <c r="B7" t="str">
+        <f>VLOOKUP(返回多列结果!$A7,数据源!$A:$J,MATCH(返回多列结果!B$2,数据源!$1:$1,0),0)</f>
+        <v>和福建设</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(返回多列结果!$A7,数据源!$A:$J,MATCH(返回多列结果!C$2,数据源!$1:$1,0),0)</f>
+        <v>创业西路 238 号</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(返回多列结果!$A7,数据源!$A:$J,MATCH(返回多列结果!D$2,数据源!$1:$1,0),0)</f>
+        <v>刘先生</v>
+      </c>
+      <c r="E7" t="str">
+        <f>VLOOKUP(返回多列结果!$A7,数据源!$A:$J,MATCH(返回多列结果!E$2,数据源!$1:$1,0),0)</f>
+        <v>(030) 15553392</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(返回多列结果!$A7,数据源!$A:$J,MATCH(返回多列结果!F$2,数据源!$1:$1,0),0)</f>
+        <v>天津</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>617</v>
       </c>
+      <c r="B8" t="str">
+        <f>VLOOKUP(返回多列结果!$A8,数据源!$A:$J,MATCH(返回多列结果!B$2,数据源!$1:$1,0),0)</f>
+        <v>春永建设</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(返回多列结果!$A8,数据源!$A:$J,MATCH(返回多列结果!C$2,数据源!$1:$1,0),0)</f>
+        <v>劳动辅路 395 号</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(返回多列结果!$A8,数据源!$A:$J,MATCH(返回多列结果!D$2,数据源!$1:$1,0),0)</f>
+        <v>王先生</v>
+      </c>
+      <c r="E8" t="str">
+        <f>VLOOKUP(返回多列结果!$A8,数据源!$A:$J,MATCH(返回多列结果!E$2,数据源!$1:$1,0),0)</f>
+        <v>(0571) 35557969</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(返回多列结果!$A8,数据源!$A:$J,MATCH(返回多列结果!F$2,数据源!$1:$1,0),0)</f>
+        <v>深圳</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>618</v>
+      </c>
+      <c r="B9" t="str">
+        <f>VLOOKUP(返回多列结果!$A9,数据源!$A:$J,MATCH(返回多列结果!B$2,数据源!$1:$1,0),0)</f>
+        <v>幸义房屋</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(返回多列结果!$A9,数据源!$A:$J,MATCH(返回多列结果!C$2,数据源!$1:$1,0),0)</f>
+        <v>七一路 89 号</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(返回多列结果!$A9,数据源!$A:$J,MATCH(返回多列结果!D$2,数据源!$1:$1,0),0)</f>
+        <v>刘先生</v>
+      </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP(返回多列结果!$A9,数据源!$A:$J,MATCH(返回多列结果!E$2,数据源!$1:$1,0),0)</f>
+        <v>(069) 20245984</v>
+      </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP(返回多列结果!$A9,数据源!$A:$J,MATCH(返回多列结果!F$2,数据源!$1:$1,0),0)</f>
+        <v>南京</v>
       </c>
     </row>
   </sheetData>
@@ -6208,11 +6769,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D3:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6244,35 +6805,203 @@
       <c r="D4" s="12" t="s">
         <v>612</v>
       </c>
+      <c r="E4" t="str">
+        <f>VLOOKUP($D4,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>浩天旅行社</v>
+      </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP($D4,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>方先生</v>
+      </c>
+      <c r="G4" t="str">
+        <f>VLOOKUP($D4,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>物主</v>
+      </c>
+      <c r="H4" t="str">
+        <f>VLOOKUP($D4,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>白广路 314 号</v>
+      </c>
+      <c r="I4" t="str">
+        <f>VLOOKUP($D4,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>天津</v>
+      </c>
+      <c r="J4" t="str">
+        <f>VLOOKUP($D4,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>华北</v>
+      </c>
     </row>
     <row r="5" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D5" s="12" t="s">
         <v>613</v>
       </c>
+      <c r="E5" t="str">
+        <f>VLOOKUP($D5,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>正人资源</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP($D5,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>谢小姐</v>
+      </c>
+      <c r="G5" t="str">
+        <f>VLOOKUP($D5,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>销售经理</v>
+      </c>
+      <c r="H5" t="str">
+        <f>VLOOKUP($D5,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>临江东街 62 号</v>
+      </c>
+      <c r="I5" t="str">
+        <f>VLOOKUP($D5,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>深圳</v>
+      </c>
+      <c r="J5" t="str">
+        <f>VLOOKUP($D5,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>华南</v>
+      </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D6" s="12" t="s">
         <v>614</v>
       </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP($D6,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>实翼</v>
+      </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP($D6,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>谢小姐</v>
+      </c>
+      <c r="G6" t="str">
+        <f>VLOOKUP($D6,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>结算经理</v>
+      </c>
+      <c r="H6" t="str">
+        <f>VLOOKUP($D6,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>永惠西街 392 号</v>
+      </c>
+      <c r="I6" t="str">
+        <f>VLOOKUP($D6,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>南昌</v>
+      </c>
+      <c r="J6" t="str">
+        <f>VLOOKUP($D6,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>华东</v>
+      </c>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D7" s="12" t="s">
         <v>615</v>
       </c>
+      <c r="E7" t="str">
+        <f>VLOOKUP($D7,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>坦森行贸易</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP($D7,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>王炫皓</v>
+      </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP($D7,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>物主</v>
+      </c>
+      <c r="H7" t="str">
+        <f>VLOOKUP($D7,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>黄台北路 780 号</v>
+      </c>
+      <c r="I7" t="str">
+        <f>VLOOKUP($D7,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>石家庄</v>
+      </c>
+      <c r="J7" t="str">
+        <f>VLOOKUP($D7,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>华北</v>
+      </c>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D8" s="12" t="s">
         <v>616</v>
       </c>
+      <c r="E8" t="str">
+        <f>VLOOKUP($D8,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>和福建设</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP($D8,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>刘先生</v>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP($D8,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>市场助理</v>
+      </c>
+      <c r="H8" t="str">
+        <f>VLOOKUP($D8,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>创业西路 238 号</v>
+      </c>
+      <c r="I8" t="str">
+        <f>VLOOKUP($D8,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>天津</v>
+      </c>
+      <c r="J8" t="str">
+        <f>VLOOKUP($D8,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>华北</v>
+      </c>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D9" s="12" t="s">
         <v>617</v>
       </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP($D9,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>春永建设</v>
+      </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP($D9,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>王先生</v>
+      </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP($D9,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>市场经理</v>
+      </c>
+      <c r="H9" t="str">
+        <f>VLOOKUP($D9,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>劳动辅路 395 号</v>
+      </c>
+      <c r="I9" t="str">
+        <f>VLOOKUP($D9,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>深圳</v>
+      </c>
+      <c r="J9" t="str">
+        <f>VLOOKUP($D9,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>华南</v>
+      </c>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D10" s="12" t="s">
         <v>618</v>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP($D10,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>幸义房屋</v>
+      </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP($D10,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>刘先生</v>
+      </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP($D10,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>销售代表</v>
+      </c>
+      <c r="H10" t="str">
+        <f>VLOOKUP($D10,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>七一路 89 号</v>
+      </c>
+      <c r="I10" t="str">
+        <f>VLOOKUP($D10,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>南京</v>
+      </c>
+      <c r="J10" t="str">
+        <f>VLOOKUP($D10,数据源!$A:$J,COLUMN()-3,0)</f>
+        <v>华东</v>
       </c>
     </row>
   </sheetData>
